--- a/data/trans_camb/P0901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>7,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 15,63</t>
+          <t>1,54; 7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 21,99</t>
+          <t>1,59; 8,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 29,74</t>
+          <t>3,39; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 20,23</t>
+          <t>5,27; 13,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 17,42</t>
+          <t>6,92; 15,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 14,24</t>
+          <t>4,63; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 15,81</t>
+          <t>4,66; 9,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 17,4</t>
+          <t>5,1; 10,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,77</t>
+          <t>5,03; 9,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>135,89%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>234,95%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>304,21%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>68,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>114,77%</t>
+          <t>71,71%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 569,41</t>
+          <t>13,53; 110,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 795,04</t>
+          <t>15,03; 113,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,85; 1014,51</t>
+          <t>32,4; 146,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 185,23</t>
+          <t>36,91; 120,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 160,92</t>
+          <t>46,37; 136,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 138,11</t>
+          <t>30,74; 103,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 208,09</t>
+          <t>40,22; 105,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 222,24</t>
+          <t>43,76; 114,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,2; 225,64</t>
+          <t>41,49; 107,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,85</t>
+          <t>-0,04; 5,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,39</t>
+          <t>-2,42; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,76</t>
+          <t>-5,37; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,94</t>
+          <t>2,74; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 16,39</t>
+          <t>-1,85; 5,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,21</t>
+          <t>0,78; 7,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,68</t>
+          <t>2,15; 6,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,7</t>
+          <t>-1,41; 3,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,52</t>
+          <t>-3,69; 4,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,97%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 107,52</t>
+          <t>-0,22; 70,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 91,81</t>
+          <t>-21,97; 36,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 122,99</t>
+          <t>-48,12; 39,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 136,44</t>
+          <t>15,05; 69,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 163,51</t>
+          <t>-10,12; 37,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 123,88</t>
+          <t>4,29; 50,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 106,67</t>
+          <t>14,7; 58,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,76; 117,68</t>
+          <t>-9,9; 27,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,89; 104,18</t>
+          <t>-26,03; 34,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,81</t>
+          <t>-2,05; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,24</t>
+          <t>-3,34; 2,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,1</t>
+          <t>3,07; 10,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,05</t>
+          <t>-3,31; 4,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,42</t>
+          <t>-2,73; 5,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,16</t>
+          <t>-10,47; 2,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,92</t>
+          <t>-1,62; 3,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,3</t>
+          <t>-2,19; 3,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,31</t>
+          <t>-3,76; 5,08</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>-16,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 70,73</t>
+          <t>-20,57; 59,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 36,34</t>
+          <t>-32,9; 39,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 61,51</t>
+          <t>28,43; 142,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,05; 69,67</t>
+          <t>-16,99; 30,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 37,49</t>
+          <t>-13,95; 33,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 49,98</t>
+          <t>-56,09; 15,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 58,82</t>
+          <t>-11,28; 28,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 27,3</t>
+          <t>-15,06; 26,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 45,34</t>
+          <t>-26,52; 40,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,36</t>
+          <t>0,31; 6,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,77</t>
+          <t>-0,95; 4,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 10,69</t>
+          <t>2,12; 8,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,77</t>
+          <t>-1,23; 5,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,21</t>
+          <t>-2,72; 4,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 3,92</t>
+          <t>-1,77; 6,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,45</t>
+          <t>0,22; 4,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,16</t>
+          <t>-1,0; 3,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,15</t>
+          <t>1,52; 6,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>27,87%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 59,49</t>
+          <t>2,04; 77,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 39,26</t>
+          <t>-9,82; 55,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,03; 147,19</t>
+          <t>19,45; 101,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 30,48</t>
+          <t>-6,37; 33,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 33,73</t>
+          <t>-13,86; 27,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 23,36</t>
+          <t>-8,82; 38,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 28,85</t>
+          <t>1,08; 37,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 26,71</t>
+          <t>-6,65; 27,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 51,01</t>
+          <t>10,7; 49,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,18</t>
+          <t>1,37; 4,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,44</t>
+          <t>-0,08; 2,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,1</t>
+          <t>1,01; 5,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,46</t>
+          <t>2,51; 6,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,51</t>
+          <t>1,22; 5,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,83</t>
+          <t>-0,77; 4,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,85</t>
+          <t>2,44; 4,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,6</t>
+          <t>1,16; 3,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,99</t>
+          <t>1,34; 5,14</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,04; 77,78</t>
+          <t>14,52; 54,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 55,3</t>
+          <t>-0,97; 35,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,48; 103,55</t>
+          <t>10,97; 67,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 33,08</t>
+          <t>14,46; 42,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 27,38</t>
+          <t>6,97; 32,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,28; 48,07</t>
+          <t>-4,26; 30,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,08; 37,69</t>
+          <t>18,39; 40,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 27,62</t>
+          <t>8,71; 28,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,58; 56,0</t>
+          <t>10,44; 42,5</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 4,47</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 2,96</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 6,77</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 6,55</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 5,02</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 5,85</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 4,94</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 3,5</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 5,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>15,83%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>55,42%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>27,78%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>23,96%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>29,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>18,13%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>36,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>14,52; 54,36</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 35,69</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>36,05; 81,27</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>14,46; 42,39</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 32,85</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 37,67</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>18,39; 40,55</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 28,63</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 48,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P0901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,73</t>
+          <t>1,56; 8,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,04</t>
+          <t>1,47; 8,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,05</t>
+          <t>3,47; 10,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 13,35</t>
+          <t>5,17; 13,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 15,19</t>
+          <t>6,64; 15,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,31</t>
+          <t>4,37; 10,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,56</t>
+          <t>4,56; 9,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,56</t>
+          <t>5,29; 10,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,97</t>
+          <t>5,06; 10,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 110,6</t>
+          <t>16,42; 120,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 113,92</t>
+          <t>13,84; 119,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 146,59</t>
+          <t>35,0; 149,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,91; 120,92</t>
+          <t>36,27; 123,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,37; 136,0</t>
+          <t>47,15; 139,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 103,62</t>
+          <t>28,01; 99,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,22; 105,01</t>
+          <t>37,25; 107,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,76; 114,43</t>
+          <t>46,16; 110,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,49; 107,1</t>
+          <t>42,91; 109,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,81</t>
+          <t>-0,05; 5,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,24</t>
+          <t>-2,64; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,67</t>
+          <t>-5,56; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,05</t>
+          <t>2,81; 9,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,42</t>
+          <t>-1,8; 5,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,29</t>
+          <t>0,85; 7,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,92</t>
+          <t>2,16; 6,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,3</t>
+          <t>-1,12; 3,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,2</t>
+          <t>-3,55; 4,2</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 70,73</t>
+          <t>-0,51; 70,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 36,34</t>
+          <t>-24,07; 35,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 39,93</t>
+          <t>-47,91; 38,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 69,67</t>
+          <t>15,43; 69,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 37,49</t>
+          <t>-10,49; 37,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 50,28</t>
+          <t>4,7; 52,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 58,82</t>
+          <t>14,98; 57,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 27,3</t>
+          <t>-8,07; 27,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 34,45</t>
+          <t>-24,81; 33,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,36</t>
+          <t>-2,05; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,77</t>
+          <t>-3,28; 2,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,26</t>
+          <t>2,73; 10,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,77</t>
+          <t>-3,07; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,21</t>
+          <t>-3,2; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 2,69</t>
+          <t>-11,42; 2,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,45</t>
+          <t>-1,75; 3,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,16</t>
+          <t>-2,13; 2,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,08</t>
+          <t>-4,03; 5,12</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 59,49</t>
+          <t>-19,92; 62,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 39,26</t>
+          <t>-31,74; 40,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 142,19</t>
+          <t>28,16; 144,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 30,48</t>
+          <t>-15,18; 30,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 33,73</t>
+          <t>-16,3; 32,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 15,94</t>
+          <t>-57,23; 14,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 28,85</t>
+          <t>-12,11; 29,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 26,71</t>
+          <t>-14,87; 24,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 40,89</t>
+          <t>-27,15; 41,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,18</t>
+          <t>0,53; 6,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,44</t>
+          <t>-1,18; 4,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,07</t>
+          <t>2,11; 7,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,46</t>
+          <t>-1,25; 5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,51</t>
+          <t>-2,61; 4,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,53</t>
+          <t>-1,75; 5,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,85</t>
+          <t>0,43; 4,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,6</t>
+          <t>-0,88; 3,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,25</t>
+          <t>1,27; 6,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 77,78</t>
+          <t>4,61; 74,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 55,3</t>
+          <t>-11,84; 54,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,45; 101,75</t>
+          <t>20,48; 97,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 33,08</t>
+          <t>-6,16; 35,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 27,38</t>
+          <t>-13,24; 26,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 38,8</t>
+          <t>-8,44; 36,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 37,69</t>
+          <t>3,49; 37,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 27,62</t>
+          <t>-6,11; 26,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 49,11</t>
+          <t>8,81; 48,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,52; 4,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,05; 2,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,76</t>
+          <t>1,21; 5,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,67; 6,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,42; 5,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,9</t>
+          <t>-0,92; 4,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,49; 4,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,06; 3,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,14</t>
+          <t>1,15; 4,74</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,92; 53,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>-0,67; 33,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,97; 67,45</t>
+          <t>12,55; 67,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,62; 41,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>8,47; 32,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 30,89</t>
+          <t>-5,04; 30,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>18,96; 40,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>7,88; 28,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,44; 42,5</t>
+          <t>9,7; 39,08</t>
         </is>
       </c>
     </row>
